--- a/1.設計書/ガレージ/ガレージ設計書.xlsx
+++ b/1.設計書/ガレージ/ガレージ設計書.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-HIGUCHI\Downloads\Doc-master\Doc-master\1.險ｭ險域嶌\繧ｬ繝ｬ繝ｼ繧ｸ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20475" windowHeight="10755" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="改版履歴" sheetId="2" r:id="rId2"/>
     <sheet name="やることリスト" sheetId="4" r:id="rId3"/>
-    <sheet name="概要" sheetId="5" r:id="rId4"/>
-    <sheet name="ガレージイン攻略" sheetId="3" r:id="rId5"/>
-    <sheet name="方針" sheetId="9" r:id="rId6"/>
-    <sheet name="日程感" sheetId="10" r:id="rId7"/>
-    <sheet name="ステートマシン" sheetId="6" r:id="rId8"/>
-    <sheet name="フローチャート" sheetId="8" r:id="rId9"/>
+    <sheet name="試走会_やることリスト" sheetId="11" r:id="rId4"/>
+    <sheet name="概要" sheetId="5" r:id="rId5"/>
+    <sheet name="ガレージイン攻略" sheetId="3" r:id="rId6"/>
+    <sheet name="方針" sheetId="9" r:id="rId7"/>
+    <sheet name="日程感" sheetId="10" r:id="rId8"/>
+    <sheet name="ステートマシン" sheetId="6" r:id="rId9"/>
+    <sheet name="フローチャート" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>変更概要</t>
     <rPh sb="0" eb="2">
@@ -838,12 +844,175 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-できていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレー検知できなかった場合の機能切り替え後からガレージインまで
+  &gt;今回の試走会では暫定的に
+    &gt;&gt;・階段を下りてからガレージインの壁までの距離
+    &gt;&gt;・ルックアップゲート：体勢が元に戻ってからガレージインの壁までの距離
+      &gt;&gt;&gt;ルックアップゲートからガレージインの壁までの距離</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガレージ自体の寸法を確認</t>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレー検知の終端から壁までの距離を確認（囲いのサイズも計測&gt;中心を求める）
+  &gt;グレー間の距離(おまけ)</t>
+    <rPh sb="14" eb="16">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋口</t>
+    <rPh sb="0" eb="2">
+      <t>ヒグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コース(現物)がどこまで伸びているか確認 -&gt;何に使う?</t>
+    <rPh sb="23" eb="24">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt;使えない</t>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[試走会_やることリスト]の追加</t>
+    <rPh sb="1" eb="3">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋口</t>
+    <rPh sb="0" eb="2">
+      <t>ヒグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt;時間計測から距離計測に変更</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt;現状グレー検知実装は不透明。
+    グレー検知使えない場合も要検討。</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレー検知が使えない場合&gt;距離でフラグを立てる。</t>
+  </si>
+  <si>
+    <t>モードを切り替える際に、距離をリセット(init)。</t>
+  </si>
+  <si>
+    <t>&gt;リセットのタイミングが、前機能依存。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;ルックアップ-&gt;設計段階の為、未定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;階段-&gt;降りるところまでできていない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        グレー検知以前でライントレースに渡す予定。</t>
+  </si>
+  <si>
+    <t>グレー検知以外のトリガーを用意</t>
+  </si>
+  <si>
+    <t>&gt;ブルートゥースでコマンド。</t>
+  </si>
+  <si>
+    <t>&gt;&gt;ブルートゥースの人に要ヒヤリング</t>
+  </si>
+  <si>
+    <t>&gt;数センチ後に呼ぶ。</t>
+  </si>
+  <si>
+    <t>ルックアップゲートおよび階段の終了箇所の確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +1060,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -918,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -941,13 +1125,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,13 +1165,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,6 +1212,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2505,15 +2725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
+      <xdr:colOff>14284</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
+      <xdr:colOff>437119</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2522,8 +2742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6891337" y="5543550"/>
-          <a:ext cx="361950" cy="419100"/>
+          <a:off x="6872284" y="5543547"/>
+          <a:ext cx="422835" cy="428627"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -4134,7 +4354,23 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>少し傾いて止まる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4376,7 +4612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4408,9 +4644,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4442,6 +4679,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4617,249 +4855,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="72" customHeight="1">
+    <row r="33" spans="11:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K34" s="5">
         <v>42910</v>
       </c>
@@ -4874,30 +5100,209 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>フローチャート</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N40" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -4909,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>0.01</v>
       </c>
@@ -4923,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>0.02</v>
       </c>
@@ -4937,112 +5342,111 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13">
+        <v>42917</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5056,14 +5460,258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>やることリスト</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -5072,15 +5720,15 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>やることリスト</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>試走会_やることリスト</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -5098,67 +5746,87 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5">
-        <v>42910</v>
+        <v>42917</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5">
-        <v>42910</v>
+        <v>42917</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="81">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5">
-        <v>42910</v>
+        <v>42917</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5">
+        <v>42917</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5166,7 +5834,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5174,17 +5842,15 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5192,7 +5858,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5200,7 +5866,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5208,7 +5874,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5216,7 +5882,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5224,30 +5890,23 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5255,7 +5914,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5263,7 +5922,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5271,7 +5930,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5279,7 +5938,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5294,37 +5953,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A8" sqref="A8:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>概要</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -5332,7 +5991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -5344,80 +6003,300 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ガレージイン攻略</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="C17" s="10" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="C18" s="10" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="25" spans="2:11">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F23" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F24" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="F25" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -5430,8 +6309,11 @@
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="G33" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -5444,8 +6326,11 @@
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -5456,16 +6341,22 @@
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="G36" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -5473,47 +6364,60 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>5</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="G38" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>6</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="G39" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>7</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="G40" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>8</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>9</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="G42" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>10</v>
       </c>
@@ -5521,7 +6425,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>11</v>
       </c>
@@ -5529,7 +6433,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>12</v>
       </c>
@@ -5537,7 +6441,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>13</v>
       </c>
@@ -5553,42 +6457,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>方針</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -5596,140 +6500,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21">
-      <c r="A1" s="4" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>日程感</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="7">
-        <v>42910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9">
-        <v>42924</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="9">
-        <v>42924</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5740,16 +6513,149 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>日程感</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="8">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="8">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ステートマシン</v>
@@ -5761,93 +6667,4 @@
   <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A1" s="4" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>フローチャート</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="N10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="N11" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="N13" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="N14" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="N15" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="N16" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/1.設計書/ガレージ/ガレージ設計書.xlsx
+++ b/1.設計書/ガレージ/ガレージ設計書.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-HIGUCHI\Downloads\Doc-master\Doc-master\1.險ｭ險域嶌\繧ｬ繝ｬ繝ｼ繧ｸ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="改版履歴" sheetId="2" r:id="rId2"/>
     <sheet name="やることリスト" sheetId="4" r:id="rId3"/>
     <sheet name="試走会_やることリスト" sheetId="11" r:id="rId4"/>
-    <sheet name="概要" sheetId="5" r:id="rId5"/>
-    <sheet name="ガレージイン攻略" sheetId="3" r:id="rId6"/>
-    <sheet name="方針" sheetId="9" r:id="rId7"/>
+    <sheet name="概要" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="方針" sheetId="9" r:id="rId6"/>
+    <sheet name="ガレージイン攻略" sheetId="3" r:id="rId7"/>
     <sheet name="日程感" sheetId="10" r:id="rId8"/>
     <sheet name="ステートマシン" sheetId="6" r:id="rId9"/>
     <sheet name="フローチャート" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>変更概要</t>
     <rPh sb="0" eb="2">
@@ -1007,12 +1002,230 @@
     <t>ルックアップゲートおよび階段の終了箇所の確認。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一昨年のコードから流用可能なものを探す。（特に倒立制御）
+APIなんかは使えない可能性はあるが、ロジック的な面で参考にする。</t>
+    <rPh sb="0" eb="3">
+      <t>オトトシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウリツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認結果</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールで展開されてた</t>
+    <rPh sb="4" eb="6">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※グレー検知はやらない</t>
+    <rPh sb="4" eb="6">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他機能部処理終了後、ガレージインは独自で走行する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーターの回転数を図り○○回転したら止まることとする。</t>
+    <rPh sb="5" eb="8">
+      <t>カイテンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレー検知は行わない</t>
+    <rPh sb="3" eb="5">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガレージイン処理実行時、走行速度を低下させる。（既存の走行速度によっては不要）</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+方針見直し
+設計方針確定させるため、フローチャートの吹き出しを修正。
+やることリストに追加
+日程が機能してないので削除</t>
+    <rPh sb="1" eb="3">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,8 +1288,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,7 +1326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,9 +1406,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1197,6 +1429,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,6 +2215,69 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="676275"/>
+          <a:ext cx="7924800" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3360,7 +3676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3899,15 +4215,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>466724</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3916,13 +4232,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553074" y="1876424"/>
-          <a:ext cx="3038475" cy="3019426"/>
+          <a:off x="5657849" y="695323"/>
+          <a:ext cx="3038475" cy="4229101"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -69217"/>
-            <a:gd name="adj2" fmla="val -47728"/>
+            <a:gd name="adj1" fmla="val -91788"/>
+            <a:gd name="adj2" fmla="val -15613"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -4135,6 +4451,86 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案３：（ほぼ決定）　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ガレージイン動作開始後、モータの回転数で制御。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>周期ごとにモーターの回転数を減らしていく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>動作開始後からゴールまでの距離に関しては実機で確認しながら実施。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4255,13 +4651,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4270,8 +4666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="6191250"/>
-          <a:ext cx="3324225" cy="1085850"/>
+          <a:off x="5495925" y="6191249"/>
+          <a:ext cx="3324225" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4368,6 +4764,54 @@
             </a:rPr>
             <a:t>少し傾いて止まる</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に倒立制御があったようななかったような。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -4562,6 +5006,30 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sample</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から流用できるので流用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4570,7 +5038,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4612,7 +5080,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4647,7 +5115,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4860,234 +5328,235 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="11:11" ht="72" customHeight="1">
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:11">
       <c r="K34" s="5">
-        <v>42910</v>
+        <f>MAX(改版履歴!D:D)</f>
+        <v>42944</v>
       </c>
     </row>
   </sheetData>
@@ -5102,171 +5571,174 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>フローチャート</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N10" s="11" t="s">
+    <row r="9" spans="1:15">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="N10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N11" s="11" t="s">
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="N11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N13" s="11" t="s">
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="N13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N14" s="11" t="s">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N15" s="11" t="s">
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="N15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N16" s="11" t="s">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N17" s="11" t="s">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="14:15">
+      <c r="N17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N19" s="11" t="s">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="14:15">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="14:15">
+      <c r="N19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N22" s="11" t="s">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="14:15">
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="14:15">
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="14:15">
+      <c r="N22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N23" s="11" t="s">
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="14:15">
+      <c r="N23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N31" s="11" t="s">
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="14:15">
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="14:15">
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="14:15">
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="14:15">
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="14:15">
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="14:15">
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="14:15">
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="14:15">
+      <c r="N31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N37" s="11" t="s">
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="14:15">
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="14:15">
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="14:15">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="14:15">
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="14:15">
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="14:15">
+      <c r="N37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N38" s="11" t="s">
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="14:15">
+      <c r="N38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.15">
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="14:15">
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="14:15">
       <c r="N40" s="9" t="s">
         <v>72</v>
       </c>
@@ -5283,24 +5755,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -5314,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" s="2">
         <v>0.01</v>
       </c>
@@ -5328,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="27">
       <c r="B6" s="2">
         <v>0.02</v>
       </c>
@@ -5342,111 +5812,119 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="2">
         <v>0.03</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>42917</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="67.5">
+      <c r="B8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="22">
+        <v>42944</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5461,27 +5939,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -5498,200 +5982,240 @@
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
+    <row r="5" spans="1:10" ht="54">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="20">
         <v>42910</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="40.5">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="20">
         <v>42910</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="81">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="20">
         <v>42910</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="27">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5711,7 +6235,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -5720,13 +6244,13 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>試走会_やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -5746,7 +6270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -5766,7 +6290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -5786,7 +6310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="40.5">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -5806,7 +6330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="81">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -5826,7 +6350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5834,7 +6358,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5842,7 +6366,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5850,7 +6374,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5858,7 +6382,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5866,7 +6390,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5874,7 +6398,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5882,7 +6406,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5890,7 +6414,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5898,7 +6422,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5906,7 +6430,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5914,7 +6438,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5922,7 +6446,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5930,7 +6454,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5938,7 +6462,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5958,32 +6482,32 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:M25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>概要</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:10">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -5991,7 +6515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:10">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -6005,298 +6529,402 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>方針</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1"/>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1"/>
+    <row r="19" spans="2:2" ht="12.75" hidden="1" customHeight="1" outlineLevel="1"/>
+    <row r="20" spans="2:2" hidden="1" outlineLevel="1">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" hidden="1" outlineLevel="1">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="23" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="24" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="25" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="26" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="27" spans="2:2" hidden="1" outlineLevel="1">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="29" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="30" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="31" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="32" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="33" spans="3:10" hidden="1" outlineLevel="1">
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" hidden="1" outlineLevel="1">
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="36" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="37" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="38" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="39" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="40" spans="3:10" collapsed="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ガレージイン攻略</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="F23" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F24" s="18" t="s">
+    <row r="24" spans="1:13">
+      <c r="F24" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -6313,7 +6941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -6326,11 +6954,11 @@
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -6341,22 +6969,22 @@
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="2">
         <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -6364,7 +6992,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="2">
         <v>5</v>
       </c>
@@ -6375,49 +7003,49 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="2">
         <v>6</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="2">
         <v>7</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="2">
         <v>8</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="2">
         <v>9</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="2">
         <v>10</v>
       </c>
@@ -6425,7 +7053,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" s="2">
         <v>11</v>
       </c>
@@ -6433,7 +7061,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="2">
         <v>12</v>
       </c>
@@ -6441,7 +7069,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" s="2">
         <v>13</v>
       </c>
@@ -6457,87 +7085,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>方針</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>日程感</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -6545,12 +7119,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="7">
         <v>42910</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -6558,17 +7132,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -6576,12 +7150,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" s="7">
         <v>42917</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -6589,7 +7163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -6597,17 +7171,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="8">
         <v>42924</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -6615,22 +7189,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="B25" s="8">
         <v>42924</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -6642,6 +7216,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6649,13 +7224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ステートマシン</v>

--- a/1.設計書/ガレージ/ガレージ設計書.xlsx
+++ b/1.設計書/ガレージ/ガレージ設計書.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksk\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\NFRAZJ9T\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="701"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20850" windowHeight="8430" tabRatio="701" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -17,13 +22,16 @@
     <sheet name="日程感" sheetId="10" r:id="rId8"/>
     <sheet name="ステートマシン" sheetId="6" r:id="rId9"/>
     <sheet name="フローチャート" sheetId="8" r:id="rId10"/>
+    <sheet name="心配な点" sheetId="12" r:id="rId11"/>
+    <sheet name="IF調整" sheetId="14" r:id="rId12"/>
+    <sheet name="現時点の問題点" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
   <si>
     <t>変更概要</t>
     <rPh sb="0" eb="2">
@@ -1220,12 +1228,289 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ルックアップゲートor階段後、曲がっている状態でガレージ処理に入るとまっすぐ走らないのではないか</t>
+    <rPh sb="11" eb="13">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心配な点</t>
+    <rPh sb="0" eb="2">
+      <t>シンパイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江口</t>
+    <rPh sb="0" eb="2">
+      <t>エグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策内容（案）</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガレージ処理に入ってからの黒線に関してはライントレースを行い、それが終わったら直進させる。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クロセン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チョクシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車庫が狭いから、倒立制御時にはみ出たり、ぶつかったりしそう</t>
+    <rPh sb="0" eb="2">
+      <t>シャコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微調整</t>
+    <rPh sb="0" eb="3">
+      <t>ビチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこでガレージに切り替わるか
+（階段 or lookupが終わったタイミングのどこでやる？）</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライントレースは、黒と白の差で曲がるなどの処理を行っている</t>
+  </si>
+  <si>
+    <t>→そのため、「黒の検知が終わった」等を確認するのが難しい可能性がある。</t>
+  </si>
+  <si>
+    <t>　→ライントレースに確認中</t>
+  </si>
+  <si>
+    <t>・ライントレースからガレージに切り替われない場合</t>
+  </si>
+  <si>
+    <t>難所から直接ガレージをコールしてもらう。</t>
+  </si>
+  <si>
+    <t>ただし、以下懸念点アリ</t>
+  </si>
+  <si>
+    <t>・階段から降りた際が毎回誤差が発生しそう。</t>
+  </si>
+  <si>
+    <t>・ルックアップも起き上がったタイミングで、誤差が発生しそう。</t>
+  </si>
+  <si>
+    <t>上記の対策方法として</t>
+  </si>
+  <si>
+    <t>1.進んで3秒止まるを何回も繰り返す。</t>
+  </si>
+  <si>
+    <t>（3秒止まったら完全停止と認められる？ため。ごり押し）</t>
+  </si>
+  <si>
+    <t>2.天にお祈りする。</t>
+  </si>
+  <si>
+    <t>3.誤差の平均を確認し、がんばる</t>
+  </si>
+  <si>
+    <t>・ライントレースからガレージに切り替わる場合</t>
+  </si>
+  <si>
+    <t>切り替わったタイミングから直進して、モーターが一定の距離進んだら止まる。</t>
+  </si>
+  <si>
+    <t>後は誤差調整（平均とったり、祈ったり）</t>
+  </si>
+  <si>
+    <t>問題点</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モータの速度制御で、小さな値にした場合や マイナス（バックする）用に設定したとしても、速い速度で動作する。</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒立制御ができていない。</t>
+    <rPh sb="0" eb="2">
+      <t>トウリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルックアップゲートに倒立制御のような処理があるので真似をする？</t>
+    <rPh sb="10" eb="12">
+      <t>トウリツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策が見えていない。</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（※ガレージインの処理を直接呼んだ場合）
+尻尾が下がったまま、動いている</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,6 +1589,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1375,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,6 +1753,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5038,7 +5347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5080,7 +5389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5115,7 +5424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5326,14 +5635,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>5</v>
       </c>
@@ -5348,7 +5657,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -5361,7 +5670,7 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -5374,7 +5683,7 @@
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -5387,7 +5696,7 @@
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -5400,7 +5709,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -5413,7 +5722,7 @@
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -5426,7 +5735,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -5439,7 +5748,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -5452,7 +5761,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -5465,7 +5774,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -5478,7 +5787,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -5491,7 +5800,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -5504,7 +5813,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -5517,7 +5826,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -5530,7 +5839,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -5543,17 +5852,17 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="72" customHeight="1">
+    <row r="33" spans="11:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K34" s="5">
         <f>MAX(改版履歴!D:D)</f>
         <v>42944</v>
@@ -5576,169 +5885,169 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C55"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>フローチャート</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N13" s="10" t="s">
         <v>58</v>
       </c>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N16" s="10" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="14:15">
+    <row r="17" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N17" s="10" t="s">
         <v>67</v>
       </c>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="14:15">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="14:15">
+    <row r="19" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="14:15">
+    <row r="20" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="14:15">
+    <row r="21" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="14:15">
+    <row r="22" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N22" s="10" t="s">
         <v>64</v>
       </c>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="14:15">
+    <row r="23" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N23" s="10" t="s">
         <v>65</v>
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="14:15">
+    <row r="24" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="14:15">
+    <row r="25" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="14:15">
+    <row r="26" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="14:15">
+    <row r="27" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="14:15">
+    <row r="28" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="14:15">
+    <row r="29" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="14:15">
+    <row r="30" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="14:15">
+    <row r="31" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="14:15">
+    <row r="32" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="14:15">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="14:15">
+    <row r="34" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="14:15">
+    <row r="35" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="14:15">
+    <row r="36" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="14:15">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N37" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="14:15">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N38" s="10" t="s">
         <v>63</v>
       </c>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="14:15">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="14:15">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N40" s="9" t="s">
         <v>72</v>
       </c>
@@ -5748,6 +6057,654 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>心配な点</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>IF調整</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>現時点の問題点</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5757,20 +6714,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -5784,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>0.01</v>
       </c>
@@ -5798,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>0.02</v>
       </c>
@@ -5812,7 +6769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>0.03</v>
       </c>
@@ -5826,7 +6783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="67.5">
+    <row r="8" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>0.04</v>
       </c>
@@ -5840,91 +6797,91 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5948,7 +6905,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -5959,13 +6916,13 @@
     <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -5988,7 +6945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="54">
+    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -6013,7 +6970,7 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="18">
         <v>2</v>
       </c>
@@ -6036,7 +6993,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="81">
+    <row r="7" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="B7" s="18">
         <v>3</v>
       </c>
@@ -6061,7 +7018,7 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="27">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -6080,7 +7037,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -6091,7 +7048,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6100,7 +7057,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6109,7 +7066,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6118,7 +7075,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6127,7 +7084,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6136,7 +7093,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6145,7 +7102,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6154,7 +7111,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6163,7 +7120,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6172,7 +7129,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -6181,7 +7138,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6190,7 +7147,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6199,7 +7156,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6208,7 +7165,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6235,7 +7192,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -6244,13 +7201,13 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>試走会_やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -6270,7 +7227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -6290,7 +7247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -6310,7 +7267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5">
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -6330,7 +7287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81">
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -6350,7 +7307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6358,7 +7315,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6366,7 +7323,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6374,7 +7331,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6382,7 +7339,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6390,7 +7347,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6398,7 +7355,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6406,7 +7363,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6414,7 +7371,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6422,7 +7379,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6430,7 +7387,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -6438,7 +7395,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6446,7 +7403,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6454,7 +7411,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6462,7 +7419,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6485,29 +7442,29 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>概要</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -6515,7 +7472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -6535,77 +7492,77 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>方針</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
-    <row r="17" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="18" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="19" spans="2:2" ht="12.75" hidden="1" customHeight="1" outlineLevel="1"/>
-    <row r="20" spans="2:2" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:2" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:2" hidden="1" outlineLevel="1">
+    <row r="21" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="23" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="24" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="25" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="26" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="27" spans="2:2" hidden="1" outlineLevel="1">
+    <row r="22" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="29" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="30" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="31" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="32" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="33" spans="3:10" hidden="1" outlineLevel="1">
+    <row r="28" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>52</v>
       </c>
@@ -6613,17 +7570,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:10" hidden="1" outlineLevel="1">
+    <row r="34" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="3:10" hidden="1" outlineLevel="1"/>
-    <row r="36" spans="3:10" hidden="1" outlineLevel="1"/>
-    <row r="37" spans="3:10" hidden="1" outlineLevel="1"/>
-    <row r="38" spans="3:10" hidden="1" outlineLevel="1"/>
-    <row r="39" spans="3:10" hidden="1" outlineLevel="1"/>
-    <row r="40" spans="3:10" collapsed="1"/>
+    <row r="35" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:10" collapsed="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6637,19 +7594,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ガレージイン攻略</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>50</v>
@@ -6666,7 +7623,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -6681,7 +7638,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -6696,7 +7653,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6711,7 +7668,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6726,7 +7683,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6741,7 +7698,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -6756,7 +7713,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>55</v>
@@ -6773,7 +7730,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6788,7 +7745,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6803,7 +7760,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6818,7 +7775,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6833,7 +7790,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6848,7 +7805,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
@@ -6867,7 +7824,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
@@ -6886,17 +7843,17 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F23" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F24" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -6904,27 +7861,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -6941,7 +7898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -6958,7 +7915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -6973,7 +7930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>3</v>
       </c>
@@ -6984,7 +7941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -6992,7 +7949,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>5</v>
       </c>
@@ -7003,7 +7960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>6</v>
       </c>
@@ -7014,7 +7971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>7</v>
       </c>
@@ -7025,7 +7982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>8</v>
       </c>
@@ -7034,7 +7991,7 @@
       <c r="E41" s="2"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>9</v>
       </c>
@@ -7045,7 +8002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>10</v>
       </c>
@@ -7053,7 +8010,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>11</v>
       </c>
@@ -7061,7 +8018,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>12</v>
       </c>
@@ -7069,7 +8026,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>13</v>
       </c>
@@ -7094,24 +8051,24 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>日程感</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -7119,12 +8076,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="7">
         <v>42910</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -7132,17 +8089,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -7150,12 +8107,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <v>42917</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -7163,7 +8120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -7171,17 +8128,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>42924</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -7189,22 +8146,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>42924</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -7228,9 +8185,9 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ステートマシン</v>

--- a/1.設計書/ガレージ/ガレージ設計書.xlsx
+++ b/1.設計書/ガレージ/ガレージ設計書.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksk\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\NFRAZJ9T\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20850" windowHeight="8430" tabRatio="701" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="8430" tabRatio="701" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,15 +18,16 @@
     <sheet name="ステートマシン" sheetId="6" r:id="rId9"/>
     <sheet name="フローチャート" sheetId="8" r:id="rId10"/>
     <sheet name="心配な点" sheetId="12" r:id="rId11"/>
-    <sheet name="IF調整" sheetId="14" r:id="rId12"/>
-    <sheet name="現時点の問題点" sheetId="15" r:id="rId13"/>
+    <sheet name="現時点の問題点" sheetId="15" r:id="rId12"/>
+    <sheet name="IF調整" sheetId="14" r:id="rId13"/>
+    <sheet name="0826までにやること、0826にやること" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
   <si>
     <t>変更概要</t>
     <rPh sb="0" eb="2">
@@ -1505,12 +1501,298 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>0826までにやること、0826にやること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応者</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江口/樋口</t>
+    <rPh sb="0" eb="2">
+      <t>エグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・尻尾を落とすタイミングなどを微調整
+落とす頻度の角度
+落とす頻度（何回区切るか）
+落とすまでの時間</t>
+    <rPh sb="1" eb="3">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ビチョウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ライントレースチームからガレージインに渡されるタイミングから、ガレージまでの距離をソースに落とし込む</t>
+    <rPh sb="20" eb="21">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lineトレースのソースをガレージに合わせこむ</t>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコードの体裁修正（余裕があったら）</t>
+    <rPh sb="7" eb="9">
+      <t>テイサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.cにガレージインのコードを呼ぶように修正する。（他の人と調整）
+8/25までに中川が作成し、8/26に他の人と調整してマージする。</t>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾制御で、停止後に尻尾が動き続ける場合があるバグ有り（20％ぐらい）
+バグの原因は以下の欄外を想定</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ランガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if(grade_test_touritu &gt;= 2500){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                tail_control(TAIL_ANGLE_STAND_UP); /* 倒立制御を削除 尻尾を下す */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }else if(grade_test_touritu &gt;= 2000){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                tail_control((TAIL_ANGLE_STAND_UP-20)); /* 倒立制御を削除 尻尾を下す */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }else if(grade_test_touritu &gt;= 1500){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                tail_control((TAIL_ANGLE_STAND_UP-30)); /* 倒立制御を削除 尻尾を下す */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t>←1500 ～ 2000の間で　　ずっとtail_control()をコールしている</t>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→そのため、tail_control()の誤差で尻尾が上がったり下がったりする。</t>
+    <rPh sb="21" eb="23">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→tail_controlを1回だけコールするようにすればよい。</t>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←２０００ ～ 2500の間で　　ずっとtail_control()をコールしている</t>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ここは2017/8/5時点で修正必要か不明　このままずっとコールしててもよさそうな気はする。（実動作で確認)</t>
+    <rPh sb="12" eb="14">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,14 +2033,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5389,7 +5671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5421,10 +5703,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5456,7 +5737,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5632,237 +5912,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A13:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="11:11" ht="72" customHeight="1">
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:11">
       <c r="K34" s="5">
         <f>MAX(改版履歴!D:D)</f>
         <v>42944</v>
@@ -5879,175 +6159,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>フローチャート</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="N10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="N11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="N13" s="10" t="s">
         <v>58</v>
       </c>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="N14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="N15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="N16" s="10" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="14:15">
       <c r="N17" s="10" t="s">
         <v>67</v>
       </c>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="14:15">
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="14:15">
       <c r="N19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="14:15">
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="14:15">
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="14:15">
       <c r="N22" s="10" t="s">
         <v>64</v>
       </c>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="14:15">
       <c r="N23" s="10" t="s">
         <v>65</v>
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="14:15">
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="14:15">
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="14:15">
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="14:15">
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="14:15">
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="14:15">
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="14:15">
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="14:15">
       <c r="N31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="14:15">
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="14:15">
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="14:15">
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="14:15">
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="14:15">
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="14:15">
       <c r="N37" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="14:15">
       <c r="N38" s="10" t="s">
         <v>63</v>
       </c>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="14:15">
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="14:15">
       <c r="N40" s="9" t="s">
         <v>72</v>
       </c>
@@ -6061,7 +6341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6071,7 +6351,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -6080,13 +6360,13 @@
     <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>心配な点</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -6104,7 +6384,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="27">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -6122,7 +6402,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -6140,7 +6420,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="27">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -6156,7 +6436,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -6166,7 +6446,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6174,7 +6454,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6182,7 +6462,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6190,7 +6470,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6198,7 +6478,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6206,7 +6486,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6214,7 +6494,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6222,7 +6502,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6230,7 +6510,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6238,7 +6518,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6246,7 +6526,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -6254,7 +6534,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6262,7 +6542,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6270,7 +6550,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6278,7 +6558,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6294,15 +6574,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -6311,164 +6593,211 @@
     <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>IF調整</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="26"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="26"/>
+        <v>現時点の問題点</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="27">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6478,15 +6807,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -6495,211 +6824,164 @@
     <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>現時点の問題点</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5">
-        <v>42945</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="5">
-        <v>42945</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="5">
-        <v>42945</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>IF調整</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6708,26 +6990,257 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>0826までにやること、0826にやること</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -6741,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" s="2">
         <v>0.01</v>
       </c>
@@ -6755,7 +7268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="27">
       <c r="B6" s="2">
         <v>0.02</v>
       </c>
@@ -6769,7 +7282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="2">
         <v>0.03</v>
       </c>
@@ -6783,7 +7296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="67.5">
       <c r="B8" s="2">
         <v>0.04</v>
       </c>
@@ -6797,91 +7310,91 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6895,7 +7408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6905,7 +7418,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -6916,13 +7429,13 @@
     <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -6945,7 +7458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="54">
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -6970,7 +7483,7 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="40.5">
       <c r="B6" s="18">
         <v>2</v>
       </c>
@@ -6993,7 +7506,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="81">
       <c r="B7" s="18">
         <v>3</v>
       </c>
@@ -7018,7 +7531,7 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -7037,7 +7550,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -7048,7 +7561,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -7057,7 +7570,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -7066,7 +7579,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7075,7 +7588,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7084,7 +7597,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7093,7 +7606,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7102,7 +7615,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -7111,7 +7624,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7120,7 +7633,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7129,7 +7642,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7138,7 +7651,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -7147,7 +7660,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -7156,7 +7669,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7165,7 +7678,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7182,7 +7695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7192,7 +7705,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
@@ -7201,13 +7714,13 @@
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>試走会_やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -7227,7 +7740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -7247,7 +7760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -7267,7 +7780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="40.5">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -7287,7 +7800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="81">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -7307,7 +7820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -7315,7 +7828,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -7323,7 +7836,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -7331,7 +7844,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7339,7 +7852,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7347,7 +7860,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7355,7 +7868,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7363,7 +7876,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -7371,7 +7884,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7379,7 +7892,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7387,7 +7900,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7395,7 +7908,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -7403,7 +7916,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -7411,7 +7924,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7419,7 +7932,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7435,36 +7948,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>概要</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:10">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -7472,7 +7985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:10">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -7485,84 +7998,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>方針</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
       <c r="B4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
       <c r="B5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1">
       <c r="B7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:2" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1"/>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1"/>
+    <row r="19" spans="2:2" ht="12.75" hidden="1" customHeight="1" outlineLevel="1"/>
+    <row r="20" spans="2:2" hidden="1" outlineLevel="1">
       <c r="B20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" hidden="1" outlineLevel="1">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="23" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="24" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="25" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="26" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="27" spans="2:2" hidden="1" outlineLevel="1">
       <c r="B27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="29" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="30" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="31" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="32" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="33" spans="3:10" hidden="1" outlineLevel="1">
       <c r="C33" t="s">
         <v>52</v>
       </c>
@@ -7570,17 +8083,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:10" hidden="1" outlineLevel="1">
       <c r="C34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:10" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="36" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="37" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="38" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="39" spans="3:10" hidden="1" outlineLevel="1"/>
+    <row r="40" spans="3:10" collapsed="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7589,24 +8102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ガレージイン攻略</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>50</v>
@@ -7623,7 +8136,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -7638,7 +8151,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -7653,7 +8166,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7668,7 +8181,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7683,7 +8196,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -7698,7 +8211,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7713,7 +8226,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>55</v>
@@ -7730,7 +8243,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7745,7 +8258,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -7760,7 +8273,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7775,7 +8288,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -7790,7 +8303,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -7805,7 +8318,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
@@ -7824,7 +8337,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
@@ -7843,17 +8356,17 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="F23" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="F24" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -7861,27 +8374,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -7898,7 +8411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -7915,7 +8428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -7930,7 +8443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="2">
         <v>3</v>
       </c>
@@ -7941,7 +8454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -7949,7 +8462,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="2">
         <v>5</v>
       </c>
@@ -7960,7 +8473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="2">
         <v>6</v>
       </c>
@@ -7971,7 +8484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="2">
         <v>7</v>
       </c>
@@ -7982,7 +8495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="2">
         <v>8</v>
       </c>
@@ -7991,7 +8504,7 @@
       <c r="E41" s="2"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="2">
         <v>9</v>
       </c>
@@ -8002,7 +8515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="2">
         <v>10</v>
       </c>
@@ -8010,7 +8523,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" s="2">
         <v>11</v>
       </c>
@@ -8018,7 +8531,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="2">
         <v>12</v>
       </c>
@@ -8026,7 +8539,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" s="2">
         <v>13</v>
       </c>
@@ -8043,7 +8556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -8051,24 +8564,24 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>日程感</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -8076,12 +8589,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="7">
         <v>42910</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -8089,17 +8602,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -8107,12 +8620,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" s="7">
         <v>42917</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -8120,7 +8633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -8128,17 +8641,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="8">
         <v>42924</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -8146,22 +8659,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="B25" s="8">
         <v>42924</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -8178,16 +8691,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ステートマシン</v>

--- a/1.設計書/ガレージ/ガレージ設計書.xlsx
+++ b/1.設計書/ガレージ/ガレージ設計書.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="8430" tabRatio="701" firstSheet="5" activeTab="13"/>
@@ -22,12 +22,12 @@
     <sheet name="IF調整" sheetId="14" r:id="rId13"/>
     <sheet name="0826までにやること、0826にやること" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>変更概要</t>
     <rPh sb="0" eb="2">
@@ -1698,10 +1698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>if(grade_test_touritu &gt;= 2500){</t>
   </si>
   <si>
@@ -1784,6 +1780,165 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←Lineトレースのソースをガレージのソースに実装（ただし、コンパイルしてないのでコンパイルをお願いします。）
+Lineをトレースしながら動く想定です。
+動かなかったらLineトレースさんチームに聞いてみてください。</t>
+    <rPh sb="23" eb="25">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←やってない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←app.cの
+main_cyc1()のswitch分に
+case STAT_GAREGE のときに
+garage_main(LIGHT_WHITE + LIGHT_BLACK);
+をコールするようにしてください。</t>
+    <rPh sb="26" eb="27">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←実機確認</t>
+    <rPh sb="1" eb="3">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川対応時コメント　2017/8/25</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←実機で確認してください。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.5　詳細</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/8/25 中川記載コメント</t>
+    <rPh sb="10" eb="12">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←下のNo.5詳細を修正
+コールし続けていたのを1回のみコールに変更してます。
+実際に治ったかを実機で確認してください。</t>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ソースコードの対応部分に /* 中川　～2017/8/25対応 */というコメントで囲ってある場所が以下の部分の対応内容です。</t>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1791,7 +1946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1960,7 +2115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2041,6 +2196,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5629,7 +5790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5703,6 +5864,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5737,6 +5899,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5912,7 +6075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6159,7 +6322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6341,7 +6504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6574,7 +6737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6807,7 +6970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6991,11 +7154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7004,9 +7167,10 @@
     <col min="3" max="3" width="65.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>0826までにやること、0826にやること</v>
@@ -7018,92 +7182,45 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="2">
+      <c r="H7" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="81">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" s="5">
-        <v>42952</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>42972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="5">
-        <v>42952</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="5">
-        <v>42973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="54">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="5">
-        <v>42952</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="5">
-        <v>42973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D8" s="5">
         <v>42952</v>
@@ -7112,18 +7229,21 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42972</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27">
       <c r="B9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" s="5">
         <v>42952</v>
@@ -7132,18 +7252,21 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.5">
+        <v>139</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42973</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54">
       <c r="B10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5">
         <v>42952</v>
@@ -7152,67 +7275,139 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42973</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5">
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="81">
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5">
+        <v>42952</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>148</v>
+      <c r="H13" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
         <v>154</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="E27" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="E24" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7222,7 +7417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7408,7 +7603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7695,7 +7890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7948,7 +8143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -7998,7 +8193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -8102,7 +8297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8556,7 +8751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -8691,7 +8886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
